--- a/src/main/resources/caseconf/userModify/Case_userModify.xlsx
+++ b/src/main/resources/caseconf/userModify/Case_userModify.xlsx
@@ -134,70 +134,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -205,7 +205,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -218,7 +218,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -231,7 +231,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -244,7 +244,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -257,7 +257,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -270,7 +270,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -283,31 +283,31 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>https://user-center-thu.tunaikita.id/user</t>
+    <t>exceptSQL</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>selSQL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>修改name成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -315,15 +315,15 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改手机号成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>parems中修改参数传空，不修改</t>
@@ -339,7 +339,7 @@
     <rPh sb="14" eb="15">
       <t>bu'xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>params 4选2，3修改</t>
@@ -349,7 +349,7 @@
     <rPh sb="12" eb="13">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>创建时不存在的参数修改</t>
@@ -371,7 +371,7 @@
     <rPh sb="9" eb="10">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改值与之前相同</t>
@@ -390,7 +390,7 @@
     <rPh sb="6" eb="7">
       <t>xiang'tong</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数缺失-params</t>
@@ -403,23 +403,23 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改证件号成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改邮箱成功</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>parems为空则不修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用户不存在</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -427,42 +427,10 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-  </si>
-  <si>
-    <t>{
-  "requestId":"202003310",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{
-"email":"624859396@qq.com"
-        }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"202003311",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{
-        }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"202003312",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{
-"email":""
-        }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -474,7 +442,7 @@
         "certNo":"324111222233335463"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -487,7 +455,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -500,7 +468,7 @@
         "email":"1234567@126.com"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -514,7 +482,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -528,7 +496,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -537,7 +505,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantId': rejected value []; codes [NotEmpty.userInfoByUpdateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -546,7 +514,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'requestId': rejected value []; codes [NotBlank.userInfoByUpdateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -560,7 +528,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -569,7 +537,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantUserId': rejected value []; codes [NotBlank.userInfoByUpdateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -578,12 +546,187 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'requestId': rejected value [null]; codes [NotBlank.userInfoByUpdateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.userInfoByUpdateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.userInfoByUpdateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'params': rejected value [null]; codes [NotNull.userInfoByUpdateReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>actualParam</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>key_value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>于*</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李**</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3412**********4384</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>624859***@qq.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>133****0175</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>userModify-001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>userModify-002</t>
+  </si>
+  <si>
+    <t>userModify-003</t>
+  </si>
+  <si>
+    <t>userModify-004</t>
+  </si>
+  <si>
+    <t>userModify-005</t>
+  </si>
+  <si>
+    <t>userModify-006</t>
+  </si>
+  <si>
+    <t>userModify-007</t>
+  </si>
+  <si>
+    <t>userModify-008</t>
+  </si>
+  <si>
+    <t>userModify-009</t>
+  </si>
+  <si>
+    <t>userModify-010</t>
+  </si>
+  <si>
+    <t>userModify-011</t>
+  </si>
+  <si>
+    <t>userModify-012</t>
+  </si>
+  <si>
+    <t>userModify-013</t>
+  </si>
+  <si>
+    <t>userModify-014</t>
+  </si>
+  <si>
+    <t>userModify-015</t>
+  </si>
+  <si>
+    <t>userModify-016</t>
+  </si>
+  <si>
+    <t>userModify-017</t>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200327",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{
+        "name":"于今"
+        }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200328",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{
+"mobileNo":"13366590175"
+        }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200329",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{      "certNo":"341222199112164384"
+        }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "requestId":"202003310",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{
+"email":"624859396@qq.com"
+        }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "requestId":"202003311",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{
+        }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "requestId":"202003312",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{
+"email":""
+        }
+}</t>
+  </si>
+  <si>
+    <t>{
+ "requestId":"202003313",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{ "email":"789@qq.com",
+"certNo":"0000001"
+        }
+}</t>
+  </si>
+  <si>
     <t>{
  "requestId":"20200326",
- "tenantUserId":"000111",
+ "tenantUserId":"000113",
  "params":{
         "name":"小明",
         "mobileNo":"18899934567",
@@ -591,221 +734,94 @@
         "email":"1234567@126.com"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.userInfoByUpdateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.userInfoByUpdateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
  "requestId":"20200326",
  "tenantId": "1001",
- "tenantUserId":"000111"
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'params': rejected value [null]; codes [NotNull.userInfoByUpdateReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actualParam</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"20200327",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{
-        "name":"于今"
-        }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>于*</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"20200328",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{
-"mobileNo":"13366590175"
-        }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "mobileNo"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"20200329",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{      "certNo":"341222199112164384"
-        }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "certNo"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "email"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>李**</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+ "tenantUserId":"000113"
+}</t>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "name"</t>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "mobileNo"</t>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "certNo"</t>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "email"</t>
   </si>
   <si>
     <t>{
   "requestId":"202003314",
  "tenantId": "1001",
- "tenantUserId":"533335",
+ "tenantUserId":"110",
  "params":{ "name":"李子七"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =533335 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =533335 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3412**********4384</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>624859***@qq.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000111 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>133****0175</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"202003313",
- "tenantId": "1001",
- "tenantUserId":"000111",
- "params":{ "email":"789@qq.com",
-"certNo":"0000001"
-        }
-}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "requestId":"202003315",
  "tenantId": "1001",
- "tenantUserId":"533335",
+ "tenantUserId":"110",
  "params":{ "name":"李子七"
         }
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>userModify-001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>userModify-002</t>
-  </si>
-  <si>
-    <t>userModify-003</t>
-  </si>
-  <si>
-    <t>userModify-004</t>
-  </si>
-  <si>
-    <t>userModify-005</t>
-  </si>
-  <si>
-    <t>userModify-006</t>
-  </si>
-  <si>
-    <t>userModify-007</t>
-  </si>
-  <si>
-    <t>userModify-008</t>
-  </si>
-  <si>
-    <t>userModify-009</t>
-  </si>
-  <si>
-    <t>userModify-010</t>
-  </si>
-  <si>
-    <t>userModify-011</t>
-  </si>
-  <si>
-    <t>userModify-012</t>
-  </si>
-  <si>
-    <t>userModify-013</t>
-  </si>
-  <si>
-    <t>userModify-014</t>
-  </si>
-  <si>
-    <t>userModify-015</t>
-  </si>
-  <si>
-    <t>userModify-016</t>
-  </si>
-  <si>
-    <t>userModify-017</t>
+    <t>delete from user_basic_info where tenant_user_id =000113 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id =000113 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
+delete from user_request_serial where tenant_id = 1001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,55 +939,55 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -980,10 +996,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -995,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1004,7 +1020,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1013,28 +1029,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,20 +1340,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="1.08203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="2.58203125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="32" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="1" style="8" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="45" style="8" customWidth="1"/>
     <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
     <col min="10" max="10" width="24.25" style="12" customWidth="1"/>
@@ -1388,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>25</v>
@@ -1397,22 +1416,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="112">
+    <row r="2" spans="1:16" ht="409.5">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="14"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>96</v>
+      </c>
       <c r="H2" s="16" t="s">
         <v>42</v>
       </c>
@@ -1423,20 +1444,20 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="112">
@@ -1444,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>30</v>
@@ -1463,20 +1484,20 @@
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="98">
@@ -1484,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>37</v>
@@ -1503,20 +1524,20 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="112">
@@ -1524,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>38</v>
@@ -1543,20 +1564,20 @@
         <v>28</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="98">
@@ -1564,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>39</v>
@@ -1583,7 +1604,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="19" t="s">
@@ -1596,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>32</v>
@@ -1615,7 +1636,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="23" t="s">
@@ -1629,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>33</v>
@@ -1648,7 +1669,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="23" t="s">
@@ -1663,7 +1684,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>34</v>
@@ -1682,20 +1703,20 @@
         <v>28</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="23" t="s">
         <v>16</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="93" customHeight="1">
@@ -1703,7 +1724,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>35</v>
@@ -1722,20 +1743,20 @@
         <v>28</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="23" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="126">
@@ -1743,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>40</v>
@@ -1764,7 +1785,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="19" t="s">
@@ -1778,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>17</v>
@@ -1797,11 +1818,11 @@
         <v>28</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L12" s="26"/>
       <c r="M12" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="10"/>
@@ -1811,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>18</v>
@@ -1830,11 +1851,11 @@
         <v>28</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="10"/>
@@ -1844,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>19</v>
@@ -1863,11 +1884,11 @@
         <v>28</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="10"/>
@@ -1877,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>20</v>
@@ -1896,11 +1917,11 @@
         <v>28</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="10"/>
@@ -1910,7 +1931,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>21</v>
@@ -1929,11 +1950,11 @@
         <v>28</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="10"/>
@@ -1943,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>22</v>
@@ -1962,11 +1983,11 @@
         <v>28</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="10"/>
@@ -1976,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>36</v>
@@ -1995,17 +2016,17 @@
         <v>28</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="O5" r:id="rId2"/>

--- a/src/main/resources/caseconf/userModify/Case_userModify.xlsx
+++ b/src/main/resources/caseconf/userModify/Case_userModify.xlsx
@@ -667,25 +667,6 @@
   </si>
   <si>
     <t>{
- "requestId":"20200328",
- "tenantId": "1001",
- "tenantUserId":"000113",
- "params":{
-"mobileNo":"13366590175"
-        }
-}</t>
-  </si>
-  <si>
-    <t>{
- "requestId":"20200329",
- "tenantId": "1001",
- "tenantUserId":"000113",
- "params":{      "certNo":"341222199112164384"
-        }
-}</t>
-  </si>
-  <si>
-    <t>{
   "requestId":"202003310",
  "tenantId": "1001",
  "tenantUserId":"000113",
@@ -741,18 +722,6 @@
  "tenantId": "1001",
  "tenantUserId":"000113"
 }</t>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "name"</t>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "mobileNo"</t>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "certNo"</t>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "email"</t>
   </si>
   <si>
     <t>{
@@ -801,6 +770,56 @@
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ "requestId":"20200328",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{
+"mobileNo":"13366590175"
+        }
+}
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "mobileNo";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "certNo"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "email"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200329",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{      "certNo":"341222199112164384"
+        }
+}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -946,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1029,9 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1042,18 +1058,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,8 +1357,8 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1428,11 +1444,11 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>96</v>
+      <c r="F2" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>42</v>
@@ -1453,11 +1469,11 @@
       <c r="N2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="33" t="s">
-        <v>89</v>
+      <c r="P2" s="34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="112">
@@ -1484,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="19" t="s">
@@ -1493,11 +1509,11 @@
       <c r="N3" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="28" t="s">
-        <v>90</v>
+      <c r="P3" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="98">
@@ -1524,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="19" t="s">
@@ -1533,11 +1549,11 @@
       <c r="N4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>91</v>
+      <c r="P4" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="112">
@@ -1564,7 +1580,7 @@
         <v>28</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="19" t="s">
@@ -1573,11 +1589,11 @@
       <c r="N5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="28" t="s">
-        <v>92</v>
+      <c r="P5" s="34" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="98">
@@ -1604,7 +1620,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="19" t="s">
@@ -1636,7 +1652,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="23" t="s">
@@ -1669,7 +1685,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="23" t="s">
@@ -1677,7 +1693,7 @@
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="31"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" s="11" customFormat="1" ht="127.5" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -1703,7 +1719,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="23" t="s">
@@ -1712,11 +1728,11 @@
       <c r="N9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="36" t="s">
-        <v>97</v>
+      <c r="P9" s="33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="11" customFormat="1" ht="93" customHeight="1">
@@ -1743,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="23" t="s">
@@ -1752,11 +1768,11 @@
       <c r="N10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="O10" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="36" t="s">
-        <v>98</v>
+      <c r="P10" s="33" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="126">
@@ -1950,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="27" t="s">
@@ -2016,7 +2032,7 @@
         <v>28</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="27" t="s">

--- a/src/main/resources/caseconf/userModify/Case_userModify.xlsx
+++ b/src/main/resources/caseconf/userModify/Case_userModify.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>lable</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -288,14 +288,6 @@
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修改name成功</t>
@@ -576,14 +568,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>actualParam</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>key_value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>于*</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -691,16 +675,6 @@
  "tenantUserId":"000113",
  "params":{
 "email":""
-        }
-}</t>
-  </si>
-  <si>
-    <t>{
- "requestId":"202003313",
- "tenantId": "1001",
- "tenantUserId":"000113",
- "params":{ "email":"789@qq.com",
-"certNo":"0000001"
         }
 }</t>
   </si>
@@ -744,17 +718,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>delete from user_basic_info where tenant_user_id =000113 and tenant_id = 1001;
 delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
 delete from user_index where tenant_user_id =000113 and tenant_id = 1001;
@@ -762,14 +725,6 @@
 delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
 delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -820,6 +775,92 @@
  "params":{      "certNo":"341222199112164384"
         }
 }</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptSQL2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>selSQL2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"202003313",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{ "email":"789@qq.com",
+"certNo":"0000001"
+        }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select  key_value from user_info_item where tenant_user_id = 000113 and tenant_id = 1001 and key_name = "certNo"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select  key_value from user_info_item where tenant_user_id = 000113 and tenant_id = 1001 and key_name = "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000***0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>789@qq.com</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +1006,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1054,22 +1095,40 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,11 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1376,13 +1435,13 @@
     <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
     <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
     <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="65.9140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="65.9140625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="18" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,367 +1482,392 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>25</v>
+        <v>92</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.5">
+    <row r="2" spans="1:17" ht="409.5">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>90</v>
+      <c r="F2" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>94</v>
+      <c r="N2" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="112">
+    <row r="3" spans="1:17" ht="409.5">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>95</v>
+      <c r="N3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="98">
+    <row r="4" spans="1:17" ht="409.5">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>96</v>
+      <c r="N4" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="112">
+    <row r="5" spans="1:17" ht="409.5">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>97</v>
+      <c r="O5" s="34" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="98">
+    <row r="6" spans="1:17" ht="409.5">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="19"/>
     </row>
-    <row r="7" spans="1:16" s="11" customFormat="1" ht="144.5" customHeight="1">
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="144.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:16" s="11" customFormat="1" ht="112">
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="409.5">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="30"/>
+      <c r="N8" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" s="11" customFormat="1" ht="127.5" customHeight="1">
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>91</v>
+      <c r="N9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="93" customHeight="1">
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="93" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>84</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>92</v>
+      <c r="N10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="126">
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="126">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>15</v>
@@ -1795,27 +1879,27 @@
         <v>23</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="266">
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>17</v>
@@ -1828,27 +1912,27 @@
         <v>23</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L12" s="26"/>
       <c r="M12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="266">
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>18</v>
@@ -1861,27 +1945,27 @@
         <v>23</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="266">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>19</v>
@@ -1894,27 +1978,27 @@
         <v>23</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="266">
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>20</v>
@@ -1927,27 +2011,27 @@
         <v>23</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="266">
+    <row r="16" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>21</v>
@@ -1960,27 +2044,27 @@
         <v>23</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="266">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>22</v>
@@ -1993,30 +2077,30 @@
         <v>23</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
@@ -2026,29 +2110,30 @@
         <v>23</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
-    <hyperlink ref="O5" r:id="rId2"/>
+    <hyperlink ref="N5" r:id="rId2"/>
+    <hyperlink ref="P8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/userModify/Case_userModify.xlsx
+++ b/src/main/resources/caseconf/userModify/Case_userModify.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform-master-0429/src/main/resources/caseconf/userModify/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="-3320" yWindow="-17920" windowWidth="37240" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="userModify" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,16 +652,6 @@
   </si>
   <si>
     <t>{
- "requestId":"20200327",
- "tenantId": "1001",
- "tenantUserId":"000113",
- "params":{
-        "name":"于今"
-        }
-}</t>
-  </si>
-  <si>
-    <t>{
   "requestId":"202003310",
  "tenantId": "1001",
  "tenantUserId":"000113",
@@ -748,7 +749,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>;</t>
@@ -775,17 +775,6 @@
  "params":{      "certNo":"341222199112164384"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_basic_info values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -837,7 +826,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>email</t>
@@ -848,7 +836,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
@@ -863,12 +850,34 @@
     <t>789@qq.com</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "requestId":"20200327",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{
+        "name":"于今"
+        }
+}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,33 +1424,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="156.83203125" style="8" customWidth="1"/>
     <col min="7" max="7" width="45" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="12" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="65.9140625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15" style="8" customWidth="1"/>
+    <col min="15" max="15" width="65.83203125" style="35" customWidth="1"/>
     <col min="16" max="16" width="18" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,19 +1491,19 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5">
+    <row r="2" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1507,10 +1516,10 @@
       <c r="D2" s="14"/>
       <c r="E2" s="15"/>
       <c r="F2" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>40</v>
@@ -1522,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="19" t="s">
@@ -1532,10 +1541,10 @@
         <v>54</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="409.5">
+    <row r="3" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1548,10 +1557,10 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -1563,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="19" t="s">
@@ -1573,10 +1582,10 @@
         <v>58</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="409.5">
+    <row r="4" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1589,10 +1598,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>23</v>
@@ -1604,7 +1613,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="19" t="s">
@@ -1614,10 +1623,10 @@
         <v>56</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="409.5">
+    <row r="5" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1630,10 +1639,10 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>23</v>
@@ -1645,7 +1654,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="19" t="s">
@@ -1655,10 +1664,10 @@
         <v>57</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="409.5">
+    <row r="6" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1671,10 +1680,10 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>23</v>
@@ -1686,14 +1695,14 @@
         <v>26</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" ht="144.5" customHeight="1">
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1706,10 +1715,10 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>23</v>
@@ -1721,7 +1730,7 @@
         <v>26</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="23" t="s">
@@ -1730,7 +1739,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" ht="409.5">
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1743,10 +1752,10 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>23</v>
@@ -1758,26 +1767,26 @@
         <v>26</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1">
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1790,10 +1799,10 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>23</v>
@@ -1805,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="23" t="s">
@@ -1815,10 +1824,10 @@
         <v>55</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="93" customHeight="1">
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="183.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1831,10 +1840,10 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>23</v>
@@ -1846,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="23" t="s">
@@ -1856,10 +1865,10 @@
         <v>55</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="126">
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1894,7 +1903,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1927,7 +1936,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1960,7 +1969,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1993,7 +2002,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2026,7 +2035,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="16" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" s="26"/>
       <c r="M16" s="27" t="s">
@@ -2059,7 +2068,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="266">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2092,7 +2101,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>26</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="27" t="s">

--- a/src/main/resources/caseconf/userModify/Case_userModify.xlsx
+++ b/src/main/resources/caseconf/userModify/Case_userModify.xlsx
@@ -1,28 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform-master-0429/src/main/resources/caseconf/userModify/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-3320" yWindow="-17920" windowWidth="37240" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10690"/>
   </bookViews>
   <sheets>
     <sheet name="userModify" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -35,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,67 +137,67 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>JY</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -216,7 +205,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -229,7 +218,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -242,7 +231,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -255,7 +244,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -268,7 +257,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -281,7 +270,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -294,23 +283,23 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改name成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -318,15 +307,15 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改手机号成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>parems中修改参数传空，不修改</t>
@@ -342,7 +331,7 @@
     <rPh sb="14" eb="15">
       <t>bu'xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>params 4选2，3修改</t>
@@ -352,7 +341,7 @@
     <rPh sb="12" eb="13">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>创建时不存在的参数修改</t>
@@ -374,7 +363,7 @@
     <rPh sb="9" eb="10">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改值与之前相同</t>
@@ -393,7 +382,7 @@
     <rPh sb="6" eb="7">
       <t>xiang'tong</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数缺失-params</t>
@@ -406,23 +395,23 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改证件号成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改邮箱成功</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>parems为空则不修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>用户不存在</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -430,7 +419,7 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
@@ -445,7 +434,7 @@
         "certNo":"324111222233335463"
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -458,7 +447,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -471,7 +460,7 @@
         "email":"1234567@126.com"
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -485,7 +474,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -499,7 +488,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -508,7 +497,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantId': rejected value []; codes [NotEmpty.userInfoByUpdateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -517,7 +506,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'requestId': rejected value []; codes [NotBlank.userInfoByUpdateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -531,7 +520,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -540,7 +529,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantUserId': rejected value []; codes [NotBlank.userInfoByUpdateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -549,7 +538,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'requestId': rejected value [null]; codes [NotBlank.userInfoByUpdateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -558,7 +547,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.userInfoByUpdateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -567,7 +556,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.userInfoByUpdateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -576,31 +565,31 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'params': rejected value [null]; codes [NotNull.userInfoByUpdateReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>于*</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>李**</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3412**********4384</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>624859***@qq.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>133****0175</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>userModify-001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>userModify-002</t>
@@ -706,7 +695,7 @@
  "params":{ "name":"李子七"
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -716,7 +705,7 @@
  "params":{ "name":"李子七"
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>delete from user_basic_info where tenant_user_id =000113 and tenant_id = 1001;
@@ -726,7 +715,7 @@
 delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
 delete from user_request_serial where tenant_id = 1001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{ "requestId":"20200328",
@@ -737,7 +726,7 @@
         }
 }
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -749,23 +738,24 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>;</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "certNo"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "email"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -775,27 +765,27 @@
  "params":{      "certNo":"341222199112164384"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>selSQL1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -806,15 +796,15 @@
 "certNo":"0000001"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id = 000113 and tenant_id = 1001 and key_name = "certNo"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -826,6 +816,7 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>email</t>
@@ -836,19 +827,20 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>0000***0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>789@qq.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
@@ -859,7 +851,7 @@
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
 insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
 insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -870,19 +862,27 @@
         "name":"于今"
         }
 }</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1008,55 +1008,55 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1065,10 +1065,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1080,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1089,7 +1089,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1098,46 +1098,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,33 +1424,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.08203125" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="8" customWidth="1"/>
-    <col min="6" max="6" width="156.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="45" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.83203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15" style="8" customWidth="1"/>
-    <col min="15" max="15" width="65.83203125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="24.25" style="12" customWidth="1"/>
+    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="65.9140625" style="35" customWidth="1"/>
     <col min="16" max="16" width="18" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="409.5">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="409" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="409.5">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="409" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="409.5">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="409" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="409.5">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="409" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="409.5">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="144.5" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="409.5">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="183.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="183.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="126">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="266">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="O18" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="N5" r:id="rId2"/>

--- a/src/main/resources/caseconf/userModify/Case_userModify.xlsx
+++ b/src/main/resources/caseconf/userModify/Case_userModify.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/userModify/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10690"/>
+    <workbookView xWindow="3800" yWindow="-20760" windowWidth="35820" windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="userModify" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,70 +145,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
   <si>
     <t>lable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>author</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>flag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>preDataSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>clearDataSQL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>serviceEnv</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>requestType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>baseParamJson</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>expectParamJson</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>exectResult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>JY</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -205,7 +216,7 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-requestId为空</t>
@@ -218,7 +229,7 @@
     <rPh sb="14" eb="15">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantId为空</t>
@@ -231,7 +242,7 @@
     <rPh sb="13" eb="14">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数-tenantUserId为空</t>
@@ -244,7 +255,7 @@
     <rPh sb="17" eb="18">
       <t>wei'kong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-requestId</t>
@@ -257,7 +268,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantId</t>
@@ -270,7 +281,7 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>必传参数缺失-tenantUserId</t>
@@ -283,23 +294,23 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改name成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -307,15 +318,15 @@
     "resMsg": "成功",
     "successful": 1
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改手机号成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>/modify</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>parems中修改参数传空，不修改</t>
@@ -331,7 +342,7 @@
     <rPh sb="14" eb="15">
       <t>bu'xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>params 4选2，3修改</t>
@@ -341,7 +352,7 @@
     <rPh sb="12" eb="13">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>创建时不存在的参数修改</t>
@@ -363,7 +374,7 @@
     <rPh sb="9" eb="10">
       <t>xiu'gai</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改值与之前相同</t>
@@ -382,7 +393,7 @@
     <rPh sb="6" eb="7">
       <t>xiang'tong</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>非必传参数缺失-params</t>
@@ -395,23 +406,23 @@
     <rPh sb="4" eb="5">
       <t>que'shi</t>
     </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改证件号成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改邮箱成功</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>parems为空则不修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用户不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -419,7 +430,7 @@
     "resMsg": "用户不存在",
     "successful": 0
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>https://user-center-thu.tunaikita.id/user</t>
@@ -434,7 +445,7 @@
         "certNo":"324111222233335463"
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -447,7 +458,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -460,7 +471,7 @@
         "email":"1234567@126.com"
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -474,7 +485,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -488,7 +499,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -497,7 +508,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantId': rejected value []; codes [NotEmpty.userInfoByUpdateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -506,7 +517,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'requestId': rejected value []; codes [NotBlank.userInfoByUpdateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -520,7 +531,7 @@
         "email":""
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -529,7 +540,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantUserId': rejected value []; codes [NotBlank.userInfoByUpdateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -538,7 +549,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'requestId': rejected value [null]; codes [NotBlank.userInfoByUpdateReq.requestId,NotBlank.requestId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.requestId,requestId]; arguments []; default message [requestId]]; default message [请求唯一id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -547,7 +558,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantId': rejected value [null]; codes [NotEmpty.userInfoByUpdateReq.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户租户号不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -556,7 +567,7 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'tenantUserId': rejected value [null]; codes [NotBlank.userInfoByUpdateReq.tenantUserId,NotBlank.tenantUserId,NotBlank.java.lang.String,NotBlank]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [租户用户id不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -565,31 +576,31 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserController.modify(***.web.request.UserInfoByUpdateReq): [Field error in object 'userInfoByUpdateReq' on field 'params': rejected value [null]; codes [NotNull.userInfoByUpdateReq.params,NotNull.params,NotNull.***.service.dto.UserDto,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userInfoByUpdateReq.params,params]; arguments []; default message [params]]; default message [用户信息参数不允许为空]] "
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>于*</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>李**</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3412**********4384</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>624859***@qq.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>133****0175</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>userModify-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>userModify-002</t>
@@ -695,7 +706,7 @@
  "params":{ "name":"李子七"
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -705,16 +716,6 @@
  "params":{ "name":"李子七"
         }
 }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_basic_info where tenant_user_id =000113 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id =000113 and tenant_id = 1001;
-delete from user_basic_info where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 110 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -726,7 +727,7 @@
         }
 }
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -738,54 +739,43 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>;</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "mobileNo";</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "certNo"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id =000113 and tenant_id = 1001 and key_name = "email"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "requestId":"20200329",
- "tenantId": "1001",
- "tenantUserId":"000113",
- "params":{      "certNo":"341222199112164384"
-        }
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>selSQL1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>exceptSQL2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -796,15 +786,15 @@
 "certNo":"0000001"
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id = 110 and tenant_id = 1001 and key_name = "name"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>select  key_value from user_info_item where tenant_user_id = 000113 and tenant_id = 1001 and key_name = "certNo"</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -816,7 +806,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>email</t>
@@ -827,31 +816,19 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0000***0001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>789@qq.com</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -862,27 +839,74 @@
         "name":"于今"
         }
 }</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "requestId":"20200329",
+ "tenantId": "1001",
+ "tenantUserId":"000113",
+ "params":{      "certNo":"341222199112164384"
+        }
+}
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("793145221335302333","1001","110",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViMDVlS3gvRWpFQ2todWRyNFBya0FkWEN6ZWUrVTNlODRBQUFBQUFBQUFBQ2lMcmdqMDAwalFvSFg5OFpocm0rL1IzTElDN3Rwelo3R241ZTFRN0ZzWjYraDV0Y0tLVFFhSG9BOWNIM3pkYzd0ZUl4N3IwMHBWQXlMVzhpTDNuOW80clNLUDVkanQ4WnhyLzMzVUtBcys0SWFqTlV2WmtuM29nNnRsWVZCRFFJeS9kK1ljVnhXRCtCdXBvWTlFcnVQdTQweGdqK0plNjBaV040NHZrVlJDL2dTYTlDTTQyOGpqc2I3Z0EwRkVoQkFnQnRWZmJoT2ZrOFJla3ZkVGNsOHRKaDBYaXVieGxBeDErVzIvcmpXQVVnZ2dCWHpWU3h0Z1EraXI3c2E5ajI0M05NRnhhSmdhMG5QNDhmZ2NvcXF6cWJ1bWdNOWEvTzRUaFg1L2V1TUNTYThmZDBmckhhRE8vbUZ5dndNKzZJSjNiRWQxRGxmc3NMdkwxYVBtSDV5Q2xwK0wzdzZlMlFHSngvZ0hCRVRmME5sSHVQM1crSmdpTmx2WGh1Z25VMEcxeWVLWDZTcjJLVG9lSjM5WXgzbGk4VG5lRVRLaFk3Q21GcWptUnRqdmRUM29Qell6YW9LT2lYWUFSRVNqejNFTmZ6V0xrT21IMEQzdElUWGhoVWt5aHYwYmlERzdyND0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("793145221335302333","1001","110",NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,"2020-03-29 21:49:59","2020-03-29 21:49:59")
+insert into user_info_item  (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"793145221335302333","1001","001","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">delete from user_basic_info where tenant_user_id ="000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000113" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001"
+</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001"</t>
+  </si>
+  <si>
+    <t>delete from user_basic_info where tenant_user_id ="000113" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id ="000113" and tenant_id = "1001";
+delete from user_basic_info where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "110" and tenant_id = "1001";
+delete from user_request_serial where tenant_id = "1001"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1008,55 +1032,55 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1065,10 +1089,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1080,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1089,7 +1113,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1098,46 +1122,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,33 +1448,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4140625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.08203125" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="1" style="8" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="45" style="8" customWidth="1"/>
-    <col min="8" max="8" width="31.9140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="12" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="65.9140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="78.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="64.1640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="12" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15" style="8" customWidth="1"/>
+    <col min="15" max="15" width="65.83203125" style="35" customWidth="1"/>
     <col min="16" max="16" width="18" style="5" customWidth="1"/>
     <col min="17" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,19 +1515,19 @@
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>93</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="409.5">
+    <row r="2" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -1519,7 +1543,7 @@
         <v>101</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>40</v>
@@ -1531,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="19" t="s">
@@ -1541,10 +1565,10 @@
         <v>54</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="409.5">
+    <row r="3" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -1560,7 +1584,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>23</v>
@@ -1572,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="19" t="s">
@@ -1582,10 +1606,10 @@
         <v>58</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="409.5">
+    <row r="4" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1625,7 @@
         <v>101</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>23</v>
@@ -1613,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="19" t="s">
@@ -1623,10 +1647,10 @@
         <v>56</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="409.5">
+    <row r="5" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1666,7 @@
         <v>101</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>23</v>
@@ -1664,10 +1688,10 @@
         <v>57</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="409.5">
+    <row r="6" spans="1:17" ht="409" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +1707,7 @@
         <v>101</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>23</v>
@@ -1702,7 +1726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" ht="144.5" customHeight="1">
+    <row r="7" spans="1:17" s="11" customFormat="1" ht="144.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +1742,7 @@
         <v>101</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>23</v>
@@ -1739,7 +1763,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="36"/>
     </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" ht="409.5">
+    <row r="8" spans="1:17" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1755,7 +1779,7 @@
         <v>101</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>23</v>
@@ -1767,26 +1791,26 @@
         <v>26</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="23" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P8" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1">
+    <row r="9" spans="1:17" s="11" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1799,10 +1823,10 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>23</v>
@@ -1824,10 +1848,10 @@
         <v>55</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="183.5" customHeight="1">
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="183.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1840,10 +1864,10 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>23</v>
@@ -1865,10 +1889,10 @@
         <v>55</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="126">
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1903,7 +1927,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1960,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1993,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="36"/>
     </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +2026,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="15" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2059,7 @@
       <c r="N15" s="10"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="16" spans="1:17" s="11" customFormat="1" ht="266">
+    <row r="16" spans="1:17" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2068,7 +2092,7 @@
       <c r="N16" s="10"/>
       <c r="O16" s="36"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="266">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="285" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2101,7 +2125,7 @@
       <c r="N17" s="10"/>
       <c r="O17" s="36"/>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2135,7 +2159,7 @@
       <c r="O18" s="36"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3:H18" r:id="rId1" display="https://user-center-thu.tunaikita.id/user"/>
     <hyperlink ref="N5" r:id="rId2"/>
